--- a/Code/Results/Cases/Case_7_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03910540848521</v>
+        <v>1.053883338136465</v>
       </c>
       <c r="D2">
-        <v>1.053207713760633</v>
+        <v>1.066887051355269</v>
       </c>
       <c r="E2">
-        <v>1.049455655166185</v>
+        <v>1.0626759963797</v>
       </c>
       <c r="F2">
-        <v>1.059864604141928</v>
+        <v>1.073587142745315</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058759620126053</v>
+        <v>1.069085928843214</v>
       </c>
       <c r="J2">
-        <v>1.06017623883218</v>
+        <v>1.074563744918851</v>
       </c>
       <c r="K2">
-        <v>1.063972399118017</v>
+        <v>1.077487032008949</v>
       </c>
       <c r="L2">
-        <v>1.060266450542585</v>
+        <v>1.07332611947574</v>
       </c>
       <c r="M2">
-        <v>1.070548478703678</v>
+        <v>1.084108346193512</v>
       </c>
       <c r="N2">
-        <v>1.061681810695235</v>
+        <v>1.07608974869082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046266508553516</v>
+        <v>1.059749138231727</v>
       </c>
       <c r="D3">
-        <v>1.058835437753063</v>
+        <v>1.071561127474279</v>
       </c>
       <c r="E3">
-        <v>1.05551231574996</v>
+        <v>1.067626370340772</v>
       </c>
       <c r="F3">
-        <v>1.066001838014709</v>
+        <v>1.078691261271258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061079876341299</v>
+        <v>1.071296420361369</v>
       </c>
       <c r="J3">
-        <v>1.065570718380983</v>
+        <v>1.078733661464493</v>
       </c>
       <c r="K3">
-        <v>1.068767036727553</v>
+        <v>1.081353476865197</v>
       </c>
       <c r="L3">
-        <v>1.065480958064551</v>
+        <v>1.077461340337967</v>
       </c>
       <c r="M3">
-        <v>1.075854517310742</v>
+        <v>1.088407347986862</v>
       </c>
       <c r="N3">
-        <v>1.067083951023754</v>
+        <v>1.080265586996253</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050774322989074</v>
+        <v>1.063457272364189</v>
       </c>
       <c r="D4">
-        <v>1.062380132386579</v>
+        <v>1.074518460100583</v>
       </c>
       <c r="E4">
-        <v>1.059329963349591</v>
+        <v>1.070760589314173</v>
       </c>
       <c r="F4">
-        <v>1.06987013095448</v>
+        <v>1.08192286929575</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06252904460024</v>
+        <v>1.072684683880778</v>
       </c>
       <c r="J4">
-        <v>1.068962725184185</v>
+        <v>1.081366131016606</v>
       </c>
       <c r="K4">
-        <v>1.071779757193412</v>
+        <v>1.083793601822341</v>
       </c>
       <c r="L4">
-        <v>1.068761416648413</v>
+        <v>1.080073901882892</v>
       </c>
       <c r="M4">
-        <v>1.079192536305328</v>
+        <v>1.091123743254252</v>
       </c>
       <c r="N4">
-        <v>1.070480774865685</v>
+        <v>1.082901794957079</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052640832351629</v>
+        <v>1.064996141540226</v>
       </c>
       <c r="D5">
-        <v>1.063848270013621</v>
+        <v>1.075746303825357</v>
       </c>
       <c r="E5">
-        <v>1.060911836252585</v>
+        <v>1.072062377799275</v>
       </c>
       <c r="F5">
-        <v>1.071472949478702</v>
+        <v>1.083265119754151</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063126297169696</v>
+        <v>1.073258581748615</v>
       </c>
       <c r="J5">
-        <v>1.070366265572947</v>
+        <v>1.08245769827036</v>
       </c>
       <c r="K5">
-        <v>1.073025831647582</v>
+        <v>1.084805220011465</v>
       </c>
       <c r="L5">
-        <v>1.070119178147245</v>
+        <v>1.081157687648469</v>
       </c>
       <c r="M5">
-        <v>1.080574110526094</v>
+        <v>1.092250687991319</v>
       </c>
       <c r="N5">
-        <v>1.071886308442787</v>
+        <v>1.083994912361538</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052952595066397</v>
+        <v>1.065253375027327</v>
       </c>
       <c r="D6">
-        <v>1.064093514859817</v>
+        <v>1.075951578111959</v>
       </c>
       <c r="E6">
-        <v>1.061176120677003</v>
+        <v>1.072280044212749</v>
       </c>
       <c r="F6">
-        <v>1.071740730808954</v>
+        <v>1.083489552326991</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063225890447614</v>
+        <v>1.073354380885543</v>
       </c>
       <c r="J6">
-        <v>1.070600640768907</v>
+        <v>1.082640107642425</v>
       </c>
       <c r="K6">
-        <v>1.073233880403963</v>
+        <v>1.084974257696249</v>
       </c>
       <c r="L6">
-        <v>1.0703459306953</v>
+        <v>1.081338824366816</v>
       </c>
       <c r="M6">
-        <v>1.080804839088332</v>
+        <v>1.092439042970009</v>
       </c>
       <c r="N6">
-        <v>1.072121016478409</v>
+        <v>1.084177580775834</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050799373681178</v>
+        <v>1.063477912363463</v>
       </c>
       <c r="D7">
-        <v>1.062399834933696</v>
+        <v>1.074534926366157</v>
       </c>
       <c r="E7">
-        <v>1.05935118950843</v>
+        <v>1.070778045230898</v>
       </c>
       <c r="F7">
-        <v>1.069891638333601</v>
+        <v>1.081940867728113</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062537071526692</v>
+        <v>1.072692390116452</v>
       </c>
       <c r="J7">
-        <v>1.068981566162137</v>
+        <v>1.081380775225274</v>
       </c>
       <c r="K7">
-        <v>1.071796486468344</v>
+        <v>1.083807174225939</v>
       </c>
       <c r="L7">
-        <v>1.068779641615366</v>
+        <v>1.080088439831618</v>
       </c>
       <c r="M7">
-        <v>1.079211080957542</v>
+        <v>1.091138859805126</v>
       </c>
       <c r="N7">
-        <v>1.070499642599987</v>
+        <v>1.082916459962202</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041552583687378</v>
+        <v>1.055884375899196</v>
       </c>
       <c r="D8">
-        <v>1.055130381958867</v>
+        <v>1.068480973990485</v>
       </c>
       <c r="E8">
-        <v>1.051524290719847</v>
+        <v>1.064363710182056</v>
       </c>
       <c r="F8">
-        <v>1.061960785532363</v>
+        <v>1.075327261792931</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059554892415394</v>
+        <v>1.069841900018671</v>
       </c>
       <c r="J8">
-        <v>1.062020455616013</v>
+        <v>1.075986983962173</v>
       </c>
       <c r="K8">
-        <v>1.065611980319418</v>
+        <v>1.078806847353558</v>
       </c>
       <c r="L8">
-        <v>1.062048792444762</v>
+        <v>1.0747370935216</v>
       </c>
       <c r="M8">
-        <v>1.072362107236301</v>
+        <v>1.085575127269152</v>
       </c>
       <c r="N8">
-        <v>1.063528646478436</v>
+        <v>1.077515008896831</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024217213936341</v>
+        <v>1.041790475102711</v>
       </c>
       <c r="D9">
-        <v>1.04152373713124</v>
+        <v>1.057268010996939</v>
       </c>
       <c r="E9">
-        <v>1.036895873526455</v>
+        <v>1.052499451928867</v>
       </c>
       <c r="F9">
-        <v>1.047137225111462</v>
+        <v>1.063094819989122</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053874714902653</v>
+        <v>1.064480146407471</v>
       </c>
       <c r="J9">
-        <v>1.048942857035941</v>
+        <v>1.065949157231518</v>
       </c>
       <c r="K9">
-        <v>1.053977220649752</v>
+        <v>1.069495589363266</v>
       </c>
       <c r="L9">
-        <v>1.049417416879162</v>
+        <v>1.064794548771573</v>
       </c>
       <c r="M9">
-        <v>1.059509176785179</v>
+        <v>1.075240933409106</v>
       </c>
       <c r="N9">
-        <v>1.050432476208359</v>
+        <v>1.067462927300864</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011840085250922</v>
+        <v>1.031849086766082</v>
       </c>
       <c r="D10">
-        <v>1.031830817924599</v>
+        <v>1.049379044218021</v>
       </c>
       <c r="E10">
-        <v>1.026488577221411</v>
+        <v>1.044162744141188</v>
       </c>
       <c r="F10">
-        <v>1.036590964932097</v>
+        <v>1.0544996808244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049762510964836</v>
+        <v>1.060652690145986</v>
       </c>
       <c r="J10">
-        <v>1.039591690903568</v>
+        <v>1.058853671991869</v>
       </c>
       <c r="K10">
-        <v>1.045648195014742</v>
+        <v>1.062910525182657</v>
       </c>
       <c r="L10">
-        <v>1.040395493792078</v>
+        <v>1.057777920911973</v>
       </c>
       <c r="M10">
-        <v>1.050329558998257</v>
+        <v>1.067950031717963</v>
       </c>
       <c r="N10">
-        <v>1.041068030347485</v>
+        <v>1.060357365658311</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006255102410506</v>
+        <v>1.027398557661198</v>
       </c>
       <c r="D11">
-        <v>1.027464078136674</v>
+        <v>1.045853231411211</v>
       </c>
       <c r="E11">
-        <v>1.021802910833656</v>
+        <v>1.040439192418777</v>
       </c>
       <c r="F11">
-        <v>1.031842816864691</v>
+        <v>1.050660773030514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047894525470892</v>
+        <v>1.058929119308834</v>
       </c>
       <c r="J11">
-        <v>1.035369957321296</v>
+        <v>1.055674332268749</v>
       </c>
       <c r="K11">
-        <v>1.041886004587624</v>
+        <v>1.059959303461055</v>
       </c>
       <c r="L11">
-        <v>1.036325045295643</v>
+        <v>1.054636759239037</v>
       </c>
       <c r="M11">
-        <v>1.046188211704988</v>
+        <v>1.06468661752681</v>
       </c>
       <c r="N11">
-        <v>1.036840301419287</v>
+        <v>1.057173510908108</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004143677036635</v>
+        <v>1.025721973610013</v>
       </c>
       <c r="D12">
-        <v>1.025814444441453</v>
+        <v>1.044525987214586</v>
       </c>
       <c r="E12">
-        <v>1.020033204064411</v>
+        <v>1.03903785748933</v>
       </c>
       <c r="F12">
-        <v>1.030049535296108</v>
+        <v>1.04921603574558</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047186558381589</v>
+        <v>1.058278366780119</v>
       </c>
       <c r="J12">
-        <v>1.033773698457187</v>
+        <v>1.054476263648881</v>
       </c>
       <c r="K12">
-        <v>1.040463246253541</v>
+        <v>1.058847122349577</v>
       </c>
       <c r="L12">
-        <v>1.034786407023329</v>
+        <v>1.053453515091813</v>
       </c>
       <c r="M12">
-        <v>1.044622822151545</v>
+        <v>1.063457404946638</v>
       </c>
       <c r="N12">
-        <v>1.035241775684496</v>
+        <v>1.055973740893381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004598307860746</v>
+        <v>1.026082694580784</v>
       </c>
       <c r="D13">
-        <v>1.026169584084978</v>
+        <v>1.044811500758381</v>
       </c>
       <c r="E13">
-        <v>1.020414175543328</v>
+        <v>1.039339293828128</v>
       </c>
       <c r="F13">
-        <v>1.030435580556575</v>
+        <v>1.049526807702533</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047339075537257</v>
+        <v>1.058418442438646</v>
       </c>
       <c r="J13">
-        <v>1.034117411773519</v>
+        <v>1.054734046101099</v>
       </c>
       <c r="K13">
-        <v>1.040769611638909</v>
+        <v>1.059086427912295</v>
       </c>
       <c r="L13">
-        <v>1.035117693940639</v>
+        <v>1.053708087880894</v>
       </c>
       <c r="M13">
-        <v>1.044959866547343</v>
+        <v>1.06372186396798</v>
       </c>
       <c r="N13">
-        <v>1.035585977113162</v>
+        <v>1.056231889426248</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006081343122954</v>
+        <v>1.027260458719723</v>
       </c>
       <c r="D14">
-        <v>1.027328295888164</v>
+        <v>1.045743886730042</v>
       </c>
       <c r="E14">
-        <v>1.021657237184554</v>
+        <v>1.040323736838349</v>
       </c>
       <c r="F14">
-        <v>1.031695202106379</v>
+        <v>1.050541741312523</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047836298733819</v>
+        <v>1.058875546527912</v>
       </c>
       <c r="J14">
-        <v>1.035238597243087</v>
+        <v>1.055575655212738</v>
       </c>
       <c r="K14">
-        <v>1.041768927268269</v>
+        <v>1.059867701811485</v>
       </c>
       <c r="L14">
-        <v>1.0361984183261</v>
+        <v>1.054539294221278</v>
       </c>
       <c r="M14">
-        <v>1.046059382101572</v>
+        <v>1.06458536434242</v>
       </c>
       <c r="N14">
-        <v>1.036708754794699</v>
+        <v>1.05707469371936</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00699010213112</v>
+        <v>1.027982960778248</v>
       </c>
       <c r="D15">
-        <v>1.028038486515945</v>
+        <v>1.046315993785047</v>
       </c>
       <c r="E15">
-        <v>1.022419179886691</v>
+        <v>1.040927830998447</v>
       </c>
       <c r="F15">
-        <v>1.032467298764616</v>
+        <v>1.051164547229049</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048140752611816</v>
+        <v>1.059155768133622</v>
       </c>
       <c r="J15">
-        <v>1.035925600817354</v>
+        <v>1.056091896680045</v>
       </c>
       <c r="K15">
-        <v>1.042381222895533</v>
+        <v>1.060346924472222</v>
       </c>
       <c r="L15">
-        <v>1.036860685258345</v>
+        <v>1.055049212650935</v>
       </c>
       <c r="M15">
-        <v>1.046733170992652</v>
+        <v>1.065115105131177</v>
       </c>
       <c r="N15">
-        <v>1.037396733992842</v>
+        <v>1.057591668308764</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012205739297578</v>
+        <v>1.032141252012078</v>
       </c>
       <c r="D16">
-        <v>1.032116872381935</v>
+        <v>1.049610635062634</v>
       </c>
       <c r="E16">
-        <v>1.026795581734907</v>
+        <v>1.044407371758763</v>
       </c>
       <c r="F16">
-        <v>1.03690206587941</v>
+        <v>1.054751888552232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049884560454763</v>
+        <v>1.060765632956074</v>
       </c>
       <c r="J16">
-        <v>1.039868055844247</v>
+        <v>1.059062333297333</v>
       </c>
       <c r="K16">
-        <v>1.045894440117832</v>
+        <v>1.063104203951572</v>
       </c>
       <c r="L16">
-        <v>1.040662011780601</v>
+        <v>1.057984136549138</v>
       </c>
       <c r="M16">
-        <v>1.050600725253657</v>
+        <v>1.068164284476944</v>
       </c>
       <c r="N16">
-        <v>1.041344787758078</v>
+        <v>1.060566323286762</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015414948140767</v>
+        <v>1.034709542300352</v>
       </c>
       <c r="D17">
-        <v>1.034628279598897</v>
+        <v>1.051647123990393</v>
       </c>
       <c r="E17">
-        <v>1.029491244984734</v>
+        <v>1.046558767242255</v>
       </c>
       <c r="F17">
-        <v>1.039633708696652</v>
+        <v>1.056969955995442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050954350599814</v>
+        <v>1.061757321167669</v>
       </c>
       <c r="J17">
-        <v>1.04229337467424</v>
+        <v>1.060896262446145</v>
       </c>
       <c r="K17">
-        <v>1.048055220698716</v>
+        <v>1.064806385863833</v>
       </c>
       <c r="L17">
-        <v>1.043001216910709</v>
+        <v>1.059796894475679</v>
       </c>
       <c r="M17">
-        <v>1.052980757174375</v>
+        <v>1.070047754258707</v>
       </c>
       <c r="N17">
-        <v>1.043773550818999</v>
+        <v>1.06240285682532</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01726527982284</v>
+        <v>1.036193622635439</v>
       </c>
       <c r="D18">
-        <v>1.036076930371016</v>
+        <v>1.052824454858649</v>
       </c>
       <c r="E18">
-        <v>1.03104645559808</v>
+        <v>1.047802752742552</v>
       </c>
       <c r="F18">
-        <v>1.041209684155685</v>
+        <v>1.05825249942643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051569983193938</v>
+        <v>1.062329405596739</v>
       </c>
       <c r="J18">
-        <v>1.043691527543348</v>
+        <v>1.061955719252301</v>
       </c>
       <c r="K18">
-        <v>1.049300689178341</v>
+        <v>1.065789675695532</v>
       </c>
       <c r="L18">
-        <v>1.044349973940033</v>
+        <v>1.06084438878779</v>
       </c>
       <c r="M18">
-        <v>1.05435307706592</v>
+        <v>1.07113615929747</v>
       </c>
       <c r="N18">
-        <v>1.045173689225551</v>
+        <v>1.063463818181663</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017892626565698</v>
+        <v>1.036697332586668</v>
       </c>
       <c r="D19">
-        <v>1.036568194430771</v>
+        <v>1.053224141911887</v>
       </c>
       <c r="E19">
-        <v>1.031573903620683</v>
+        <v>1.048225106581034</v>
       </c>
       <c r="F19">
-        <v>1.04174417545588</v>
+        <v>1.058687945449083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051778508503885</v>
+        <v>1.062523411439656</v>
       </c>
       <c r="J19">
-        <v>1.044165526051307</v>
+        <v>1.06231525970562</v>
       </c>
       <c r="K19">
-        <v>1.049722893036962</v>
+        <v>1.066123357822655</v>
       </c>
       <c r="L19">
-        <v>1.044807267703071</v>
+        <v>1.061199914784305</v>
       </c>
       <c r="M19">
-        <v>1.054818363301931</v>
+        <v>1.071505579079101</v>
       </c>
       <c r="N19">
-        <v>1.045648360865759</v>
+        <v>1.063823869223666</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015072879640279</v>
+        <v>1.034435443742817</v>
       </c>
       <c r="D20">
-        <v>1.034360520822438</v>
+        <v>1.051429723628013</v>
       </c>
       <c r="E20">
-        <v>1.029203812924082</v>
+        <v>1.046329077025466</v>
       </c>
       <c r="F20">
-        <v>1.039342439406541</v>
+        <v>1.056733146957942</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050840443509326</v>
+        <v>1.061651583351426</v>
       </c>
       <c r="J20">
-        <v>1.042034882008846</v>
+        <v>1.060700565999805</v>
       </c>
       <c r="K20">
-        <v>1.047824941529302</v>
+        <v>1.064624753816299</v>
       </c>
       <c r="L20">
-        <v>1.042751876492616</v>
+        <v>1.059603429282063</v>
       </c>
       <c r="M20">
-        <v>1.05272706252178</v>
+        <v>1.069846737167682</v>
       </c>
       <c r="N20">
-        <v>1.04351469106437</v>
+        <v>1.062206882467581</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005645671288793</v>
+        <v>1.026914297274861</v>
       </c>
       <c r="D21">
-        <v>1.026987865416015</v>
+        <v>1.045469817466368</v>
       </c>
       <c r="E21">
-        <v>1.021292013668801</v>
+        <v>1.040034356307426</v>
       </c>
       <c r="F21">
-        <v>1.031325112386911</v>
+        <v>1.05024339764954</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047690277022487</v>
+        <v>1.058741236744692</v>
       </c>
       <c r="J21">
-        <v>1.034909231139678</v>
+        <v>1.055328303837108</v>
       </c>
       <c r="K21">
-        <v>1.04147536910076</v>
+        <v>1.059638085044784</v>
       </c>
       <c r="L21">
-        <v>1.035880926614044</v>
+        <v>1.054294988118832</v>
       </c>
       <c r="M21">
-        <v>1.045736368549364</v>
+        <v>1.064331564154475</v>
       </c>
       <c r="N21">
-        <v>1.036378920953645</v>
+        <v>1.056826991076405</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9995030643523899</v>
+        <v>1.022048851796232</v>
       </c>
       <c r="D22">
-        <v>1.022191259118028</v>
+        <v>1.041620140569557</v>
       </c>
       <c r="E22">
-        <v>1.016147015191608</v>
+        <v>1.035970421064876</v>
       </c>
       <c r="F22">
-        <v>1.026111634073716</v>
+        <v>1.046053615400818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045627405343204</v>
+        <v>1.056850065812529</v>
       </c>
       <c r="J22">
-        <v>1.030265083795223</v>
+        <v>1.051850904381989</v>
       </c>
       <c r="K22">
-        <v>1.037335559018864</v>
+        <v>1.056409851459954</v>
       </c>
       <c r="L22">
-        <v>1.031405242573197</v>
+        <v>1.050861459754218</v>
       </c>
       <c r="M22">
-        <v>1.041182974744282</v>
+        <v>1.060764805488686</v>
       </c>
       <c r="N22">
-        <v>1.031728178387269</v>
+        <v>1.053344653315197</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002780895792533</v>
+        <v>1.02464161977977</v>
       </c>
       <c r="D23">
-        <v>1.024750088131264</v>
+        <v>1.043671030829523</v>
       </c>
       <c r="E23">
-        <v>1.018891487129303</v>
+        <v>1.038135270833199</v>
       </c>
       <c r="F23">
-        <v>1.028892617338383</v>
+        <v>1.048285497257181</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046729128701487</v>
+        <v>1.057858633889641</v>
       </c>
       <c r="J23">
-        <v>1.032743376195128</v>
+        <v>1.053704161599219</v>
       </c>
       <c r="K23">
-        <v>1.039544844273978</v>
+        <v>1.058130352044779</v>
       </c>
       <c r="L23">
-        <v>1.033793397617299</v>
+        <v>1.052691091566751</v>
       </c>
       <c r="M23">
-        <v>1.043612563161167</v>
+        <v>1.062665385387331</v>
       </c>
       <c r="N23">
-        <v>1.034209990246646</v>
+        <v>1.055200542370247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015227512029931</v>
+        <v>1.034559340108679</v>
       </c>
       <c r="D24">
-        <v>1.034481559424716</v>
+        <v>1.051527989918916</v>
       </c>
       <c r="E24">
-        <v>1.029333743847504</v>
+        <v>1.046432897706599</v>
       </c>
       <c r="F24">
-        <v>1.039474104891636</v>
+        <v>1.056840185347094</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050891938975649</v>
+        <v>1.061699381300832</v>
       </c>
       <c r="J24">
-        <v>1.042151734528945</v>
+        <v>1.060789024376716</v>
       </c>
       <c r="K24">
-        <v>1.047929040609372</v>
+        <v>1.064706855005049</v>
       </c>
       <c r="L24">
-        <v>1.042864590941099</v>
+        <v>1.059690878260895</v>
       </c>
       <c r="M24">
-        <v>1.052841745234476</v>
+        <v>1.069937599554483</v>
       </c>
       <c r="N24">
-        <v>1.04363170952845</v>
+        <v>1.062295466465533</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028833824308463</v>
+        <v>1.045525059103046</v>
       </c>
       <c r="D25">
-        <v>1.045144143501044</v>
+        <v>1.060236056098882</v>
       </c>
       <c r="E25">
-        <v>1.040785753260341</v>
+        <v>1.055638055148461</v>
       </c>
       <c r="F25">
-        <v>1.051079052565155</v>
+        <v>1.066330776178205</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055397389590245</v>
+        <v>1.06590890646471</v>
       </c>
       <c r="J25">
-        <v>1.052428309497411</v>
+        <v>1.068611789504198</v>
       </c>
       <c r="K25">
-        <v>1.057079863466932</v>
+        <v>1.071966086111633</v>
       </c>
       <c r="L25">
-        <v>1.052782276040341</v>
+        <v>1.067429968432615</v>
       </c>
       <c r="M25">
-        <v>1.062932997345698</v>
+        <v>1.077979810710937</v>
       </c>
       <c r="N25">
-        <v>1.053922878412112</v>
+        <v>1.07012934081678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,67 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.053883338136465</v>
+        <v>1.02796513299683</v>
       </c>
       <c r="D2">
-        <v>1.066887051355269</v>
+        <v>1.043186600777067</v>
       </c>
       <c r="E2">
-        <v>1.0626759963797</v>
+        <v>1.039993486538487</v>
       </c>
       <c r="F2">
-        <v>1.073587142745315</v>
+        <v>1.049475047205263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069085928843214</v>
+        <v>1.055961060568813</v>
       </c>
       <c r="J2">
-        <v>1.074563744918851</v>
+        <v>1.049340414075561</v>
       </c>
       <c r="K2">
-        <v>1.077487032008949</v>
+        <v>1.054075360731208</v>
       </c>
       <c r="L2">
-        <v>1.07332611947574</v>
+        <v>1.050922408183067</v>
       </c>
       <c r="M2">
-        <v>1.084108346193512</v>
+        <v>1.060285603212933</v>
       </c>
       <c r="N2">
-        <v>1.07608974869082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019927033883587</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.056284232660309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059749138231727</v>
+        <v>1.031922133583003</v>
       </c>
       <c r="D3">
-        <v>1.071561127474279</v>
+        <v>1.046008518682329</v>
       </c>
       <c r="E3">
-        <v>1.067626370340772</v>
+        <v>1.043075126540019</v>
       </c>
       <c r="F3">
-        <v>1.078691261271258</v>
+        <v>1.052369698727142</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071296420361369</v>
+        <v>1.057060024899544</v>
       </c>
       <c r="J3">
-        <v>1.078733661464493</v>
+        <v>1.051578843677796</v>
       </c>
       <c r="K3">
-        <v>1.081353476865197</v>
+        <v>1.056084703947707</v>
       </c>
       <c r="L3">
-        <v>1.077461340337967</v>
+        <v>1.053184994153323</v>
       </c>
       <c r="M3">
-        <v>1.088407347986862</v>
+        <v>1.062373637394175</v>
       </c>
       <c r="N3">
-        <v>1.080265586996253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.020700368664002</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.057936734758058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063457272364189</v>
+        <v>1.034436972811987</v>
       </c>
       <c r="D4">
-        <v>1.074518460100583</v>
+        <v>1.04780511053411</v>
       </c>
       <c r="E4">
-        <v>1.070760589314173</v>
+        <v>1.045039090825254</v>
       </c>
       <c r="F4">
-        <v>1.08192286929575</v>
+        <v>1.054215224899343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072684683880778</v>
+        <v>1.057750696614142</v>
       </c>
       <c r="J4">
-        <v>1.081366131016606</v>
+        <v>1.052998994562579</v>
       </c>
       <c r="K4">
-        <v>1.083793601822341</v>
+        <v>1.057358874937744</v>
       </c>
       <c r="L4">
-        <v>1.080073901882892</v>
+        <v>1.054622702683314</v>
       </c>
       <c r="M4">
-        <v>1.091123743254252</v>
+        <v>1.063700556118805</v>
       </c>
       <c r="N4">
-        <v>1.082901794957079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.021190651111975</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.058986876624826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064996141540226</v>
+        <v>1.035483618573451</v>
       </c>
       <c r="D5">
-        <v>1.075746303825357</v>
+        <v>1.048553544081143</v>
       </c>
       <c r="E5">
-        <v>1.072062377799275</v>
+        <v>1.045857741675985</v>
       </c>
       <c r="F5">
-        <v>1.083265119754151</v>
+        <v>1.054984675718668</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073258581748615</v>
+        <v>1.058036251232275</v>
       </c>
       <c r="J5">
-        <v>1.08245769827036</v>
+        <v>1.053589423637943</v>
       </c>
       <c r="K5">
-        <v>1.084805220011465</v>
+        <v>1.057888452236215</v>
       </c>
       <c r="L5">
-        <v>1.081157687648469</v>
+        <v>1.055220966398764</v>
       </c>
       <c r="M5">
-        <v>1.092250687991319</v>
+        <v>1.064252744691921</v>
       </c>
       <c r="N5">
-        <v>1.083994912361538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.021394397860886</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.059423885891614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.065253375027327</v>
+        <v>1.035658743051482</v>
       </c>
       <c r="D6">
-        <v>1.075951578111959</v>
+        <v>1.048678812552348</v>
       </c>
       <c r="E6">
-        <v>1.072280044212749</v>
+        <v>1.045994791886407</v>
       </c>
       <c r="F6">
-        <v>1.083489552326991</v>
+        <v>1.05511349912336</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073354380885543</v>
+        <v>1.058083917892829</v>
       </c>
       <c r="J6">
-        <v>1.082640107642425</v>
+        <v>1.053688176751589</v>
       </c>
       <c r="K6">
-        <v>1.084974257696249</v>
+        <v>1.057977017845704</v>
       </c>
       <c r="L6">
-        <v>1.081338824366816</v>
+        <v>1.05532106134976</v>
       </c>
       <c r="M6">
-        <v>1.092439042970009</v>
+        <v>1.064345132358787</v>
       </c>
       <c r="N6">
-        <v>1.084177580775834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.021428470505214</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.059497002676662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063477912363463</v>
+        <v>1.034450999343917</v>
       </c>
       <c r="D7">
-        <v>1.074534926366157</v>
+        <v>1.047815137836524</v>
       </c>
       <c r="E7">
-        <v>1.070778045230898</v>
+        <v>1.045050056925364</v>
       </c>
       <c r="F7">
-        <v>1.081940867728113</v>
+        <v>1.054225531289204</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072692390116452</v>
+        <v>1.057754530970467</v>
       </c>
       <c r="J7">
-        <v>1.081380775225274</v>
+        <v>1.053006909634642</v>
       </c>
       <c r="K7">
-        <v>1.083807174225939</v>
+        <v>1.057365974897175</v>
       </c>
       <c r="L7">
-        <v>1.080088439831618</v>
+        <v>1.054630720670783</v>
       </c>
       <c r="M7">
-        <v>1.091138859805126</v>
+        <v>1.063707956499847</v>
       </c>
       <c r="N7">
-        <v>1.082916459962202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.021193382820381</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.058992733384917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055884375899196</v>
+        <v>1.029312062784671</v>
       </c>
       <c r="D8">
-        <v>1.068480973990485</v>
+        <v>1.044146474281721</v>
       </c>
       <c r="E8">
-        <v>1.064363710182056</v>
+        <v>1.041041287215751</v>
       </c>
       <c r="F8">
-        <v>1.075327261792931</v>
+        <v>1.050459112373406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069841900018671</v>
+        <v>1.056336745175646</v>
       </c>
       <c r="J8">
-        <v>1.075986983962173</v>
+        <v>1.050102854607262</v>
       </c>
       <c r="K8">
-        <v>1.078806847353558</v>
+        <v>1.054759900428084</v>
       </c>
       <c r="L8">
-        <v>1.0747370935216</v>
+        <v>1.051692608611948</v>
       </c>
       <c r="M8">
-        <v>1.085575127269152</v>
+        <v>1.060996356926344</v>
       </c>
       <c r="N8">
-        <v>1.077515008896831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.020190513996856</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.056846734390215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041790475102711</v>
+        <v>1.019892020317282</v>
       </c>
       <c r="D9">
-        <v>1.057268010996939</v>
+        <v>1.037448406330927</v>
       </c>
       <c r="E9">
-        <v>1.052499451928867</v>
+        <v>1.033737823297571</v>
       </c>
       <c r="F9">
-        <v>1.063094819989122</v>
+        <v>1.043603245313861</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.064480146407471</v>
+        <v>1.053677816383247</v>
       </c>
       <c r="J9">
-        <v>1.065949157231518</v>
+        <v>1.044761378893013</v>
       </c>
       <c r="K9">
-        <v>1.069495589363266</v>
+        <v>1.049961783290037</v>
       </c>
       <c r="L9">
-        <v>1.064794548771573</v>
+        <v>1.046306255460592</v>
       </c>
       <c r="M9">
-        <v>1.075240933409106</v>
+        <v>1.056026395771074</v>
       </c>
       <c r="N9">
-        <v>1.067462927300864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.018343306644071</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.052913419811439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031849086766082</v>
+        <v>1.013417101681332</v>
       </c>
       <c r="D10">
-        <v>1.049379044218021</v>
+        <v>1.032885662256211</v>
       </c>
       <c r="E10">
-        <v>1.044162744141188</v>
+        <v>1.028773772720166</v>
       </c>
       <c r="F10">
-        <v>1.0544996808244</v>
+        <v>1.038978010933436</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060652690145986</v>
+        <v>1.051836236332819</v>
       </c>
       <c r="J10">
-        <v>1.058853671991869</v>
+        <v>1.041108319035995</v>
       </c>
       <c r="K10">
-        <v>1.062910525182657</v>
+        <v>1.046685500456363</v>
       </c>
       <c r="L10">
-        <v>1.057777920911973</v>
+        <v>1.042642241181652</v>
       </c>
       <c r="M10">
-        <v>1.067950031717963</v>
+        <v>1.052677447432581</v>
       </c>
       <c r="N10">
-        <v>1.060357365658311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01708586899642</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.050313701838053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027398557661198</v>
+        <v>1.011139430153072</v>
       </c>
       <c r="D11">
-        <v>1.045853231411211</v>
+        <v>1.031453247242527</v>
       </c>
       <c r="E11">
-        <v>1.040439192418777</v>
+        <v>1.027226411688683</v>
       </c>
       <c r="F11">
-        <v>1.050660773030514</v>
+        <v>1.037778511136125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058929119308834</v>
+        <v>1.051378970157314</v>
       </c>
       <c r="J11">
-        <v>1.055674332268749</v>
+        <v>1.040056027773419</v>
       </c>
       <c r="K11">
-        <v>1.059959303461055</v>
+        <v>1.045805416891463</v>
       </c>
       <c r="L11">
-        <v>1.054636759239037</v>
+        <v>1.041652516270984</v>
       </c>
       <c r="M11">
-        <v>1.06468661752681</v>
+        <v>1.052021494328897</v>
       </c>
       <c r="N11">
-        <v>1.057173510908108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.016787633339802</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.050224970115417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025721973610013</v>
+        <v>1.010519688663158</v>
       </c>
       <c r="D12">
-        <v>1.044525987214586</v>
+        <v>1.031146992980208</v>
       </c>
       <c r="E12">
-        <v>1.03903785748933</v>
+        <v>1.026899140472471</v>
       </c>
       <c r="F12">
-        <v>1.04921603574558</v>
+        <v>1.037651734965937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058278366780119</v>
+        <v>1.051352171722695</v>
       </c>
       <c r="J12">
-        <v>1.054476263648881</v>
+        <v>1.039885413992205</v>
       </c>
       <c r="K12">
-        <v>1.058847122349577</v>
+        <v>1.0457008425677</v>
       </c>
       <c r="L12">
-        <v>1.053453515091813</v>
+        <v>1.04152852425937</v>
       </c>
       <c r="M12">
-        <v>1.063457404946638</v>
+        <v>1.052091470603833</v>
       </c>
       <c r="N12">
-        <v>1.055973740893381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.016782275535939</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.050602755064574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026082694580784</v>
+        <v>1.011137075446709</v>
       </c>
       <c r="D13">
-        <v>1.044811500758381</v>
+        <v>1.031689164901234</v>
       </c>
       <c r="E13">
-        <v>1.039339293828128</v>
+        <v>1.027491316475521</v>
       </c>
       <c r="F13">
-        <v>1.049526807702533</v>
+        <v>1.0383510587888</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058418442438646</v>
+        <v>1.051659976255034</v>
       </c>
       <c r="J13">
-        <v>1.054734046101099</v>
+        <v>1.040386534090223</v>
       </c>
       <c r="K13">
-        <v>1.059086427912295</v>
+        <v>1.046191348214889</v>
       </c>
       <c r="L13">
-        <v>1.053708087880894</v>
+        <v>1.042067789769022</v>
       </c>
       <c r="M13">
-        <v>1.06372186396798</v>
+        <v>1.052736940880694</v>
       </c>
       <c r="N13">
-        <v>1.056231889426248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.017003216785979</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.051386799864545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027260458719723</v>
+        <v>1.012127971239279</v>
       </c>
       <c r="D14">
-        <v>1.045743886730042</v>
+        <v>1.032451338895584</v>
       </c>
       <c r="E14">
-        <v>1.040323736838349</v>
+        <v>1.028320501980142</v>
       </c>
       <c r="F14">
-        <v>1.050541741312523</v>
+        <v>1.039213300687129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058875546527912</v>
+        <v>1.052025604595302</v>
       </c>
       <c r="J14">
-        <v>1.055575655212738</v>
+        <v>1.041039719804344</v>
       </c>
       <c r="K14">
-        <v>1.059867701811485</v>
+        <v>1.046802366234133</v>
       </c>
       <c r="L14">
-        <v>1.054539294221278</v>
+        <v>1.042743688942306</v>
       </c>
       <c r="M14">
-        <v>1.06458536434242</v>
+        <v>1.053447806071333</v>
       </c>
       <c r="N14">
-        <v>1.05707469371936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.017259505613936</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.052120407127727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027982960778248</v>
+        <v>1.012641106903702</v>
       </c>
       <c r="D15">
-        <v>1.046315993785047</v>
+        <v>1.032825782686277</v>
       </c>
       <c r="E15">
-        <v>1.040927830998447</v>
+        <v>1.028727596856991</v>
       </c>
       <c r="F15">
-        <v>1.051164547229049</v>
+        <v>1.039612416504762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059155768133622</v>
+        <v>1.052190265109498</v>
       </c>
       <c r="J15">
-        <v>1.056091896680045</v>
+        <v>1.041349328105561</v>
       </c>
       <c r="K15">
-        <v>1.060346924472222</v>
+        <v>1.047085470549212</v>
       </c>
       <c r="L15">
-        <v>1.055049212650935</v>
+        <v>1.043058317104843</v>
       </c>
       <c r="M15">
-        <v>1.065115105131177</v>
+        <v>1.05375606376888</v>
       </c>
       <c r="N15">
-        <v>1.057591668308764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.017372742024311</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.052401266293352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032141252012078</v>
+        <v>1.015262432684748</v>
       </c>
       <c r="D16">
-        <v>1.049610635062634</v>
+        <v>1.034653849922465</v>
       </c>
       <c r="E16">
-        <v>1.044407371758763</v>
+        <v>1.030715656719013</v>
       </c>
       <c r="F16">
-        <v>1.054751888552232</v>
+        <v>1.041455269486036</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060765632956074</v>
+        <v>1.052923632654293</v>
       </c>
       <c r="J16">
-        <v>1.059062333297333</v>
+        <v>1.042808431663025</v>
       </c>
       <c r="K16">
-        <v>1.063104203951572</v>
+        <v>1.048389465669582</v>
       </c>
       <c r="L16">
-        <v>1.057984136549138</v>
+        <v>1.044516509276625</v>
       </c>
       <c r="M16">
-        <v>1.068164284476944</v>
+        <v>1.055079710566013</v>
       </c>
       <c r="N16">
-        <v>1.060566323286762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01786517466484</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.053409117668659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034709542300352</v>
+        <v>1.016754276943421</v>
       </c>
       <c r="D17">
-        <v>1.051647123990393</v>
+        <v>1.035656715580835</v>
       </c>
       <c r="E17">
-        <v>1.046558767242255</v>
+        <v>1.031806365159386</v>
       </c>
       <c r="F17">
-        <v>1.056969955995442</v>
+        <v>1.042413469241247</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061757321167669</v>
+        <v>1.053291680439775</v>
       </c>
       <c r="J17">
-        <v>1.060896262446145</v>
+        <v>1.043583496921945</v>
       </c>
       <c r="K17">
-        <v>1.064806385863833</v>
+        <v>1.049067160784182</v>
       </c>
       <c r="L17">
-        <v>1.059796894475679</v>
+        <v>1.045278785998226</v>
       </c>
       <c r="M17">
-        <v>1.070047754258707</v>
+        <v>1.055716573545409</v>
       </c>
       <c r="N17">
-        <v>1.06240285682532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.018107724052238</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.053784739130043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036193622635439</v>
+        <v>1.017407147152338</v>
       </c>
       <c r="D18">
-        <v>1.052824454858649</v>
+        <v>1.036029018862192</v>
       </c>
       <c r="E18">
-        <v>1.047802752742552</v>
+        <v>1.032209503433551</v>
       </c>
       <c r="F18">
-        <v>1.05825249942643</v>
+        <v>1.04266914327882</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062329405596739</v>
+        <v>1.053371474877976</v>
       </c>
       <c r="J18">
-        <v>1.061955719252301</v>
+        <v>1.043828288108775</v>
       </c>
       <c r="K18">
-        <v>1.065789675695532</v>
+        <v>1.049253532643298</v>
       </c>
       <c r="L18">
-        <v>1.06084438878779</v>
+        <v>1.045494492811676</v>
       </c>
       <c r="M18">
-        <v>1.07113615929747</v>
+        <v>1.055789869342038</v>
       </c>
       <c r="N18">
-        <v>1.063463818181663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.018151989891988</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.05360763630721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036697332586668</v>
+        <v>1.017302719436088</v>
       </c>
       <c r="D19">
-        <v>1.053224141911887</v>
+        <v>1.035832580019286</v>
       </c>
       <c r="E19">
-        <v>1.048225106581034</v>
+        <v>1.031990912166006</v>
       </c>
       <c r="F19">
-        <v>1.058687945449083</v>
+        <v>1.042288519299869</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062523411439656</v>
+        <v>1.053194641414045</v>
       </c>
       <c r="J19">
-        <v>1.06231525970562</v>
+        <v>1.043596714885493</v>
       </c>
       <c r="K19">
-        <v>1.066123357822655</v>
+        <v>1.048998804408752</v>
       </c>
       <c r="L19">
-        <v>1.061199914784305</v>
+        <v>1.045217670606146</v>
       </c>
       <c r="M19">
-        <v>1.071505579079101</v>
+        <v>1.055354299385855</v>
       </c>
       <c r="N19">
-        <v>1.063823869223666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.018021540904871</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.05294184189203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034435443742817</v>
+        <v>1.015096883716793</v>
       </c>
       <c r="D20">
-        <v>1.051429723628013</v>
+        <v>1.0340686532768</v>
       </c>
       <c r="E20">
-        <v>1.046329077025466</v>
+        <v>1.030060191051199</v>
       </c>
       <c r="F20">
-        <v>1.056733146957942</v>
+        <v>1.04017786273492</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061651583351426</v>
+        <v>1.052317790695194</v>
       </c>
       <c r="J20">
-        <v>1.060700565999805</v>
+        <v>1.042057998994574</v>
       </c>
       <c r="K20">
-        <v>1.064624753816299</v>
+        <v>1.047537779552283</v>
       </c>
       <c r="L20">
-        <v>1.059603429282063</v>
+        <v>1.043594289484418</v>
       </c>
       <c r="M20">
-        <v>1.069846737167682</v>
+        <v>1.053549200382203</v>
       </c>
       <c r="N20">
-        <v>1.062206882467581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.017413159300927</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.050993192026371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026914297274861</v>
+        <v>1.010125410177699</v>
       </c>
       <c r="D21">
-        <v>1.045469817466368</v>
+        <v>1.030541752420364</v>
       </c>
       <c r="E21">
-        <v>1.040034356307426</v>
+        <v>1.026224372653378</v>
       </c>
       <c r="F21">
-        <v>1.05024339764954</v>
+        <v>1.036558374993771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058741236744692</v>
+        <v>1.050853711403523</v>
       </c>
       <c r="J21">
-        <v>1.055328303837108</v>
+        <v>1.039205808459815</v>
       </c>
       <c r="K21">
-        <v>1.059638085044784</v>
+        <v>1.04496671829152</v>
       </c>
       <c r="L21">
-        <v>1.054294988118832</v>
+        <v>1.040725384854967</v>
       </c>
       <c r="M21">
-        <v>1.064331564154475</v>
+        <v>1.050878730554441</v>
       </c>
       <c r="N21">
-        <v>1.056826991076405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.016419466806211</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.048839445477311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022048851796232</v>
+        <v>1.006972597755542</v>
       </c>
       <c r="D22">
-        <v>1.041620140569557</v>
+        <v>1.028320639426954</v>
       </c>
       <c r="E22">
-        <v>1.035970421064876</v>
+        <v>1.023811290269412</v>
       </c>
       <c r="F22">
-        <v>1.046053615400818</v>
+        <v>1.034297532285109</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056850065812529</v>
+        <v>1.049929848787364</v>
       </c>
       <c r="J22">
-        <v>1.051850904381989</v>
+        <v>1.037409777977673</v>
       </c>
       <c r="K22">
-        <v>1.056409851459954</v>
+        <v>1.043351189200642</v>
       </c>
       <c r="L22">
-        <v>1.050861459754218</v>
+        <v>1.038925352572937</v>
       </c>
       <c r="M22">
-        <v>1.060764805488686</v>
+        <v>1.04921885056298</v>
       </c>
       <c r="N22">
-        <v>1.053344653315197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015797116207578</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.047525775563456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02464161977977</v>
+        <v>1.00865009689704</v>
       </c>
       <c r="D23">
-        <v>1.043671030829523</v>
+        <v>1.029501892991897</v>
       </c>
       <c r="E23">
-        <v>1.038135270833199</v>
+        <v>1.025094462669183</v>
       </c>
       <c r="F23">
-        <v>1.048285497257181</v>
+        <v>1.035499644271635</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057858633889641</v>
+        <v>1.050422078709844</v>
       </c>
       <c r="J23">
-        <v>1.053704161599219</v>
+        <v>1.038365507193845</v>
       </c>
       <c r="K23">
-        <v>1.058130352044779</v>
+        <v>1.044210901824305</v>
       </c>
       <c r="L23">
-        <v>1.052691091566751</v>
+        <v>1.039882969746893</v>
       </c>
       <c r="M23">
-        <v>1.062665385387331</v>
+        <v>1.050101879499707</v>
       </c>
       <c r="N23">
-        <v>1.055200542370247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.016128310433735</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.048224626705894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034559340108679</v>
+        <v>1.015121193427786</v>
       </c>
       <c r="D24">
-        <v>1.051527989918916</v>
+        <v>1.034069720823566</v>
       </c>
       <c r="E24">
-        <v>1.046432897706599</v>
+        <v>1.030060316952552</v>
       </c>
       <c r="F24">
-        <v>1.056840185347094</v>
+        <v>1.0401540613431</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061699381300832</v>
+        <v>1.052305901064345</v>
       </c>
       <c r="J24">
-        <v>1.060789024376716</v>
+        <v>1.042049338552537</v>
       </c>
       <c r="K24">
-        <v>1.064706855005049</v>
+        <v>1.047523832301954</v>
       </c>
       <c r="L24">
-        <v>1.059690878260895</v>
+        <v>1.043579332735765</v>
       </c>
       <c r="M24">
-        <v>1.069937599554483</v>
+        <v>1.053510903776922</v>
       </c>
       <c r="N24">
-        <v>1.062295466465533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.017404420062148</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.050922607447228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045525059103046</v>
+        <v>1.022372772627768</v>
       </c>
       <c r="D25">
-        <v>1.060236056098882</v>
+        <v>1.039208908836089</v>
       </c>
       <c r="E25">
-        <v>1.055638055148461</v>
+        <v>1.035655678540912</v>
       </c>
       <c r="F25">
-        <v>1.066330776178205</v>
+        <v>1.045402809565204</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06590890646471</v>
+        <v>1.054384851070837</v>
       </c>
       <c r="J25">
-        <v>1.068611789504198</v>
+        <v>1.046169969924238</v>
       </c>
       <c r="K25">
-        <v>1.071966086111633</v>
+        <v>1.051227588507967</v>
       </c>
       <c r="L25">
-        <v>1.067429968432615</v>
+        <v>1.047724598880023</v>
       </c>
       <c r="M25">
-        <v>1.077979810710937</v>
+        <v>1.05733494104808</v>
       </c>
       <c r="N25">
-        <v>1.07012934081678</v>
+        <v>1.018830709573409</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.053949027512789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,55 +424,70 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02796513299683</v>
+        <v>1.025853357487106</v>
       </c>
       <c r="D2">
-        <v>1.043186600777067</v>
+        <v>1.040347617304904</v>
       </c>
       <c r="E2">
-        <v>1.039993486538487</v>
+        <v>1.038142115838646</v>
       </c>
       <c r="F2">
-        <v>1.049475047205263</v>
+        <v>1.047513031870257</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055961060568813</v>
+        <v>1.054603715870605</v>
       </c>
       <c r="J2">
-        <v>1.049340414075561</v>
+        <v>1.047287369000463</v>
       </c>
       <c r="K2">
-        <v>1.054075360731208</v>
+        <v>1.05127206967139</v>
       </c>
       <c r="L2">
-        <v>1.050922408183067</v>
+        <v>1.049094464524571</v>
       </c>
       <c r="M2">
-        <v>1.060285603212933</v>
+        <v>1.058347862256318</v>
       </c>
       <c r="N2">
-        <v>1.019927033883587</v>
+        <v>1.01945224633303</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056284232660309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.054750671711696</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02551317604987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031922133583003</v>
+        <v>1.029589031237268</v>
       </c>
       <c r="D3">
-        <v>1.046008518682329</v>
+        <v>1.04290541324421</v>
       </c>
       <c r="E3">
-        <v>1.043075126540019</v>
+        <v>1.041026798637682</v>
       </c>
       <c r="F3">
-        <v>1.052369698727142</v>
+        <v>1.050214221927841</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057060024899544</v>
+        <v>1.055561887492601</v>
       </c>
       <c r="J3">
-        <v>1.051578843677796</v>
+        <v>1.049304329335125</v>
       </c>
       <c r="K3">
-        <v>1.056084703947707</v>
+        <v>1.053017236732548</v>
       </c>
       <c r="L3">
-        <v>1.053184994153323</v>
+        <v>1.051160325013788</v>
       </c>
       <c r="M3">
-        <v>1.062373637394175</v>
+        <v>1.060242520400278</v>
       </c>
       <c r="N3">
-        <v>1.020700368664002</v>
+        <v>1.020004198710708</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.057936734758058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.056250136227665</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025887233929674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034436972811987</v>
+        <v>1.031964744160275</v>
       </c>
       <c r="D4">
-        <v>1.04780511053411</v>
+        <v>1.044535200068939</v>
       </c>
       <c r="E4">
-        <v>1.045039090825254</v>
+        <v>1.042866803256472</v>
       </c>
       <c r="F4">
-        <v>1.054215224899343</v>
+        <v>1.05193783308575</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057750696614142</v>
+        <v>1.056163620500122</v>
       </c>
       <c r="J4">
-        <v>1.052998994562579</v>
+        <v>1.050584684220508</v>
       </c>
       <c r="K4">
-        <v>1.057358874937744</v>
+        <v>1.0541242701687</v>
       </c>
       <c r="L4">
-        <v>1.054622702683314</v>
+        <v>1.052473991944352</v>
       </c>
       <c r="M4">
-        <v>1.063700556118805</v>
+        <v>1.061447360374893</v>
       </c>
       <c r="N4">
-        <v>1.021190651111975</v>
+        <v>1.020354404649016</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.058986876624826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.057203665437704</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026122018634935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035483618573451</v>
+        <v>1.032953834374351</v>
       </c>
       <c r="D5">
-        <v>1.048553544081143</v>
+        <v>1.045214452514927</v>
       </c>
       <c r="E5">
-        <v>1.045857741675985</v>
+        <v>1.04363414195857</v>
       </c>
       <c r="F5">
-        <v>1.054984675718668</v>
+        <v>1.05265678131117</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058036251232275</v>
+        <v>1.056412284539175</v>
       </c>
       <c r="J5">
-        <v>1.053589423637943</v>
+        <v>1.051117151658102</v>
       </c>
       <c r="K5">
-        <v>1.057888452236215</v>
+        <v>1.054584460711263</v>
       </c>
       <c r="L5">
-        <v>1.055220966398764</v>
+        <v>1.053020857940828</v>
       </c>
       <c r="M5">
-        <v>1.064252744691921</v>
+        <v>1.061948929130482</v>
       </c>
       <c r="N5">
-        <v>1.021394397860886</v>
+        <v>1.020500003304818</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059423885891614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.057600614449417</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026219013237198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035658743051482</v>
+        <v>1.033119348472879</v>
       </c>
       <c r="D6">
-        <v>1.048678812552348</v>
+        <v>1.045328159452552</v>
       </c>
       <c r="E6">
-        <v>1.045994791886407</v>
+        <v>1.043762622624073</v>
       </c>
       <c r="F6">
-        <v>1.05511349912336</v>
+        <v>1.052777168221704</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058083917892829</v>
+        <v>1.056453785858169</v>
       </c>
       <c r="J6">
-        <v>1.053688176751589</v>
+        <v>1.05120621928551</v>
       </c>
       <c r="K6">
-        <v>1.057977017845704</v>
+        <v>1.054661426545459</v>
       </c>
       <c r="L6">
-        <v>1.05532106134976</v>
+        <v>1.053112366104251</v>
       </c>
       <c r="M6">
-        <v>1.064345132358787</v>
+        <v>1.062032857896882</v>
       </c>
       <c r="N6">
-        <v>1.021428470505214</v>
+        <v>1.020524355476411</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059497002676662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.057667036909814</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026235199645508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034450999343917</v>
+        <v>1.031987306779623</v>
       </c>
       <c r="D7">
-        <v>1.047815137836524</v>
+        <v>1.044551631966686</v>
       </c>
       <c r="E7">
-        <v>1.045050056925364</v>
+        <v>1.04288508649647</v>
       </c>
       <c r="F7">
-        <v>1.054225531289204</v>
+        <v>1.051954151948759</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057754530970467</v>
+        <v>1.056171860534089</v>
       </c>
       <c r="J7">
-        <v>1.053006909634642</v>
+        <v>1.05060091173391</v>
       </c>
       <c r="K7">
-        <v>1.057365974897175</v>
+        <v>1.054137692780454</v>
       </c>
       <c r="L7">
-        <v>1.054630720670783</v>
+        <v>1.052489239041931</v>
       </c>
       <c r="M7">
-        <v>1.063707956499847</v>
+        <v>1.0614607006053</v>
       </c>
       <c r="N7">
-        <v>1.021193382820381</v>
+        <v>1.020384896754235</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.058992733384917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05721422309815</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026125673347672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029312062784671</v>
+        <v>1.02715335475243</v>
       </c>
       <c r="D8">
-        <v>1.044146474281721</v>
+        <v>1.041240093461184</v>
       </c>
       <c r="E8">
-        <v>1.041041287215751</v>
+        <v>1.039147396402787</v>
       </c>
       <c r="F8">
-        <v>1.050459112373406</v>
+        <v>1.048451752117212</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056336745175646</v>
+        <v>1.054946569883138</v>
       </c>
       <c r="J8">
-        <v>1.050102854607262</v>
+        <v>1.048002182110419</v>
       </c>
       <c r="K8">
-        <v>1.054759900428084</v>
+        <v>1.051888980233932</v>
       </c>
       <c r="L8">
-        <v>1.051692608611948</v>
+        <v>1.04982196889915</v>
       </c>
       <c r="M8">
-        <v>1.060996356926344</v>
+        <v>1.059013098245458</v>
       </c>
       <c r="N8">
-        <v>1.020190513996856</v>
+        <v>1.019727197387959</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.056846734390215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.055277151067114</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02564846086741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019892020317282</v>
+        <v>1.018274387557504</v>
       </c>
       <c r="D9">
-        <v>1.037448406330927</v>
+        <v>1.035181027272555</v>
       </c>
       <c r="E9">
-        <v>1.033737823297571</v>
+        <v>1.032324259368703</v>
       </c>
       <c r="F9">
-        <v>1.043603245313861</v>
+        <v>1.042066229447757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053677816383247</v>
+        <v>1.052628596936609</v>
       </c>
       <c r="J9">
-        <v>1.044761378893013</v>
+        <v>1.043197932913203</v>
       </c>
       <c r="K9">
-        <v>1.049961783290037</v>
+        <v>1.047727986495696</v>
       </c>
       <c r="L9">
-        <v>1.046306255460592</v>
+        <v>1.044913797513746</v>
       </c>
       <c r="M9">
-        <v>1.056026395771074</v>
+        <v>1.054511785011281</v>
       </c>
       <c r="N9">
-        <v>1.018343306644071</v>
+        <v>1.018421413626485</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.052913419811439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.051714726178367</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024743127096556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,93 +887,111 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013417101681332</v>
+        <v>1.012218378511482</v>
       </c>
       <c r="D10">
-        <v>1.032885662256211</v>
+        <v>1.031092511638148</v>
       </c>
       <c r="E10">
-        <v>1.028773772720166</v>
+        <v>1.02772954865742</v>
       </c>
       <c r="F10">
-        <v>1.038978010933436</v>
+        <v>1.037797245479185</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051836236332819</v>
+        <v>1.051043725470523</v>
       </c>
       <c r="J10">
-        <v>1.041108319035995</v>
+        <v>1.039955474066313</v>
       </c>
       <c r="K10">
-        <v>1.046685500456363</v>
+        <v>1.044922192045432</v>
       </c>
       <c r="L10">
-        <v>1.042642241181652</v>
+        <v>1.041615558692559</v>
       </c>
       <c r="M10">
-        <v>1.052677447432581</v>
+        <v>1.051516022535261</v>
       </c>
       <c r="N10">
-        <v>1.01708586899642</v>
+        <v>1.017656575410639</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050313701838053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.049394579383445</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024129879446391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.011139430153072</v>
+        <v>1.010113049269572</v>
       </c>
       <c r="D11">
-        <v>1.031453247242527</v>
+        <v>1.029837314768139</v>
       </c>
       <c r="E11">
-        <v>1.027226411688683</v>
+        <v>1.026329839931094</v>
       </c>
       <c r="F11">
-        <v>1.037778511136125</v>
+        <v>1.036737099458827</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051378970157314</v>
+        <v>1.050683525424437</v>
       </c>
       <c r="J11">
-        <v>1.040056027773419</v>
+        <v>1.039071082526197</v>
       </c>
       <c r="K11">
-        <v>1.045805416891463</v>
+        <v>1.044217657161418</v>
       </c>
       <c r="L11">
-        <v>1.041652516270984</v>
+        <v>1.040771728658924</v>
       </c>
       <c r="M11">
-        <v>1.052021494328897</v>
+        <v>1.050997941029207</v>
       </c>
       <c r="N11">
-        <v>1.016787633339802</v>
+        <v>1.017690482394019</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.050224970115417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.049415352414438</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024029705444942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010519688663158</v>
+        <v>1.009529713737495</v>
       </c>
       <c r="D12">
-        <v>1.031146992980208</v>
+        <v>1.029565974755855</v>
       </c>
       <c r="E12">
-        <v>1.026899140472471</v>
+        <v>1.026031275046475</v>
       </c>
       <c r="F12">
-        <v>1.037651734965937</v>
+        <v>1.036638269246212</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051352171722695</v>
+        <v>1.050673741509703</v>
       </c>
       <c r="J12">
-        <v>1.039885413992205</v>
+        <v>1.038936164092216</v>
       </c>
       <c r="K12">
-        <v>1.0457008425677</v>
+        <v>1.044147843103446</v>
       </c>
       <c r="L12">
-        <v>1.04152852425937</v>
+        <v>1.040676190932932</v>
       </c>
       <c r="M12">
-        <v>1.052091470603833</v>
+        <v>1.05109566234907</v>
       </c>
       <c r="N12">
-        <v>1.016782275535939</v>
+        <v>1.017792377836632</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.050602755064574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.049815343686192</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024055427253767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011137075446709</v>
+        <v>1.010067436470778</v>
       </c>
       <c r="D13">
-        <v>1.031689164901234</v>
+        <v>1.030024804289125</v>
       </c>
       <c r="E13">
-        <v>1.027491316475521</v>
+        <v>1.026550937624973</v>
       </c>
       <c r="F13">
-        <v>1.0383510587888</v>
+        <v>1.037271818786148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051659976255034</v>
+        <v>1.0509311441101</v>
       </c>
       <c r="J13">
-        <v>1.040386534090223</v>
+        <v>1.039360665658543</v>
       </c>
       <c r="K13">
-        <v>1.046191348214889</v>
+        <v>1.044556348093923</v>
       </c>
       <c r="L13">
-        <v>1.042067789769022</v>
+        <v>1.04114416109125</v>
       </c>
       <c r="M13">
-        <v>1.052736940880694</v>
+        <v>1.051676410666964</v>
       </c>
       <c r="N13">
-        <v>1.017003216785979</v>
+        <v>1.017917024303389</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051386799864545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.050548417631592</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024178668952972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012127971239279</v>
+        <v>1.010951160912148</v>
       </c>
       <c r="D14">
-        <v>1.032451338895584</v>
+        <v>1.030676252644425</v>
       </c>
       <c r="E14">
-        <v>1.028320501980142</v>
+        <v>1.027284778795647</v>
       </c>
       <c r="F14">
-        <v>1.039213300687129</v>
+        <v>1.038046639947189</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052025604595302</v>
+        <v>1.051231891837933</v>
       </c>
       <c r="J14">
-        <v>1.041039719804344</v>
+        <v>1.039910364006211</v>
       </c>
       <c r="K14">
-        <v>1.046802366234133</v>
+        <v>1.04505819633542</v>
       </c>
       <c r="L14">
-        <v>1.042743688942306</v>
+        <v>1.041726176269119</v>
       </c>
       <c r="M14">
-        <v>1.053447806071333</v>
+        <v>1.052301109158911</v>
       </c>
       <c r="N14">
-        <v>1.017259505613936</v>
+        <v>1.018015535699983</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052120407127727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.051214027829046</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024308977664168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012641106903702</v>
+        <v>1.011413727278191</v>
       </c>
       <c r="D15">
-        <v>1.032825782686277</v>
+        <v>1.030998559349527</v>
       </c>
       <c r="E15">
-        <v>1.028727596856991</v>
+        <v>1.02764741357317</v>
       </c>
       <c r="F15">
-        <v>1.039612416504762</v>
+        <v>1.038404691087547</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052190265109498</v>
+        <v>1.05136660098742</v>
       </c>
       <c r="J15">
-        <v>1.041349328105561</v>
+        <v>1.040171006483452</v>
       </c>
       <c r="K15">
-        <v>1.047085470549212</v>
+        <v>1.045289827555514</v>
       </c>
       <c r="L15">
-        <v>1.043058317104843</v>
+        <v>1.041996978439884</v>
       </c>
       <c r="M15">
-        <v>1.05375606376888</v>
+        <v>1.052568845278589</v>
       </c>
       <c r="N15">
-        <v>1.017372742024311</v>
+        <v>1.01804880071845</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052401266293352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.051462882044379</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024363675533889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015262432684748</v>
+        <v>1.013809606246144</v>
       </c>
       <c r="D16">
-        <v>1.034653849922465</v>
+        <v>1.032591776998479</v>
       </c>
       <c r="E16">
-        <v>1.030715656719013</v>
+        <v>1.029439378910886</v>
       </c>
       <c r="F16">
-        <v>1.041455269486036</v>
+        <v>1.040064178832155</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052923632654293</v>
+        <v>1.051968606678677</v>
       </c>
       <c r="J16">
-        <v>1.042808431663025</v>
+        <v>1.041410766883546</v>
       </c>
       <c r="K16">
-        <v>1.048389465669582</v>
+        <v>1.046361471424459</v>
       </c>
       <c r="L16">
-        <v>1.044516509276625</v>
+        <v>1.043261511199147</v>
       </c>
       <c r="M16">
-        <v>1.055079710566013</v>
+        <v>1.053711206460393</v>
       </c>
       <c r="N16">
-        <v>1.01786517466484</v>
+        <v>1.018171402425576</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.053409117668659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.052327413625591</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024589885749117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016754276943421</v>
+        <v>1.015195572716376</v>
       </c>
       <c r="D17">
-        <v>1.035656715580835</v>
+        <v>1.033480972338028</v>
       </c>
       <c r="E17">
-        <v>1.031806365159386</v>
+        <v>1.030438660761248</v>
       </c>
       <c r="F17">
-        <v>1.042413469241247</v>
+        <v>1.040935164225761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053291680439775</v>
+        <v>1.052275196935864</v>
       </c>
       <c r="J17">
-        <v>1.043583496921945</v>
+        <v>1.04208207643335</v>
       </c>
       <c r="K17">
-        <v>1.049067160784182</v>
+        <v>1.046926365715056</v>
       </c>
       <c r="L17">
-        <v>1.045278785998226</v>
+        <v>1.043933239475368</v>
       </c>
       <c r="M17">
-        <v>1.055716573545409</v>
+        <v>1.054261601077496</v>
       </c>
       <c r="N17">
-        <v>1.018107724052238</v>
+        <v>1.018243010840278</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.053784739130043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.052634575220832</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024696183633497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017407147152338</v>
+        <v>1.015822908443618</v>
       </c>
       <c r="D18">
-        <v>1.036029018862192</v>
+        <v>1.033823804254079</v>
       </c>
       <c r="E18">
-        <v>1.032209503433551</v>
+        <v>1.030821135827075</v>
       </c>
       <c r="F18">
-        <v>1.04266914327882</v>
+        <v>1.041169240813291</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053371474877976</v>
+        <v>1.052341579035603</v>
       </c>
       <c r="J18">
-        <v>1.043828288108775</v>
+        <v>1.042301190463028</v>
       </c>
       <c r="K18">
-        <v>1.049253532643298</v>
+        <v>1.047083164070857</v>
       </c>
       <c r="L18">
-        <v>1.045494492811676</v>
+        <v>1.044128250022459</v>
       </c>
       <c r="M18">
-        <v>1.055789869342038</v>
+        <v>1.054313263005196</v>
       </c>
       <c r="N18">
-        <v>1.018151989891988</v>
+        <v>1.018234181166433</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.05360763630721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.052440132252952</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024701548100818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017302719436088</v>
+        <v>1.015756832317658</v>
       </c>
       <c r="D19">
-        <v>1.035832580019286</v>
+        <v>1.033667026343548</v>
       </c>
       <c r="E19">
-        <v>1.031990912166006</v>
+        <v>1.030638318933777</v>
       </c>
       <c r="F19">
-        <v>1.042288519299869</v>
+        <v>1.040820011304413</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053194641414045</v>
+        <v>1.052190120697419</v>
       </c>
       <c r="J19">
-        <v>1.043596714885493</v>
+        <v>1.042106274002961</v>
       </c>
       <c r="K19">
-        <v>1.048998804408752</v>
+        <v>1.046867303040575</v>
       </c>
       <c r="L19">
-        <v>1.045217670606146</v>
+        <v>1.043886528103914</v>
       </c>
       <c r="M19">
-        <v>1.055354299385855</v>
+        <v>1.053908499219681</v>
       </c>
       <c r="N19">
-        <v>1.018021540904871</v>
+        <v>1.018134791530886</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.05294184189203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.051798330676238</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024615944583757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015096883716793</v>
+        <v>1.013762304049855</v>
       </c>
       <c r="D20">
-        <v>1.0340686532768</v>
+        <v>1.03213081010859</v>
       </c>
       <c r="E20">
-        <v>1.030060191051199</v>
+        <v>1.028896658008258</v>
       </c>
       <c r="F20">
-        <v>1.04017786273492</v>
+        <v>1.038884941886678</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052317790695194</v>
+        <v>1.051444266001056</v>
       </c>
       <c r="J20">
-        <v>1.042057998994574</v>
+        <v>1.04077282952544</v>
       </c>
       <c r="K20">
-        <v>1.047537779552283</v>
+        <v>1.04563126548551</v>
       </c>
       <c r="L20">
-        <v>1.043594289484418</v>
+        <v>1.042449737695419</v>
       </c>
       <c r="M20">
-        <v>1.053549200382203</v>
+        <v>1.052276852041428</v>
       </c>
       <c r="N20">
-        <v>1.017413159300927</v>
+        <v>1.017779841687197</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.050993192026371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.049986275849671</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024283642880491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010125410177699</v>
+        <v>1.0092529072739</v>
       </c>
       <c r="D21">
-        <v>1.030541752420364</v>
+        <v>1.029082120015254</v>
       </c>
       <c r="E21">
-        <v>1.026224372653378</v>
+        <v>1.025466867717823</v>
       </c>
       <c r="F21">
-        <v>1.036558374993771</v>
+        <v>1.035642115836808</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050853711403523</v>
+        <v>1.050253433280873</v>
       </c>
       <c r="J21">
-        <v>1.039205808459815</v>
+        <v>1.038368798320557</v>
       </c>
       <c r="K21">
-        <v>1.04496671829152</v>
+        <v>1.043532703314096</v>
       </c>
       <c r="L21">
-        <v>1.040725384854967</v>
+        <v>1.039981308286047</v>
       </c>
       <c r="M21">
-        <v>1.050878730554441</v>
+        <v>1.049978300789306</v>
       </c>
       <c r="N21">
-        <v>1.016419466806211</v>
+        <v>1.01754079526863</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048839445477311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.048126823469435</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023823581185472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006972597755542</v>
+        <v>1.006392553510301</v>
       </c>
       <c r="D22">
-        <v>1.028320639426954</v>
+        <v>1.027163804105613</v>
       </c>
       <c r="E22">
-        <v>1.023811290269412</v>
+        <v>1.023310895906482</v>
       </c>
       <c r="F22">
-        <v>1.034297532285109</v>
+        <v>1.033620005749925</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049929848787364</v>
+        <v>1.049502575294006</v>
       </c>
       <c r="J22">
-        <v>1.037409777977673</v>
+        <v>1.036854712643935</v>
       </c>
       <c r="K22">
-        <v>1.043351189200642</v>
+        <v>1.042215687166355</v>
       </c>
       <c r="L22">
-        <v>1.038925352572937</v>
+        <v>1.03843428464822</v>
       </c>
       <c r="M22">
-        <v>1.04921885056298</v>
+        <v>1.048553623660938</v>
       </c>
       <c r="N22">
-        <v>1.015797116207578</v>
+        <v>1.017388656714549</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047525775563456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.046999297951843</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023536010119386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00865009689704</v>
+        <v>1.007898837003588</v>
       </c>
       <c r="D23">
-        <v>1.029501892991897</v>
+        <v>1.028171233018434</v>
       </c>
       <c r="E23">
-        <v>1.025094462669183</v>
+        <v>1.024443553637561</v>
       </c>
       <c r="F23">
-        <v>1.035499644271635</v>
+        <v>1.034683539817791</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050422078709844</v>
+        <v>1.049894159453187</v>
       </c>
       <c r="J23">
-        <v>1.038365507193845</v>
+        <v>1.037645643873443</v>
       </c>
       <c r="K23">
-        <v>1.044210901824305</v>
+        <v>1.042904150052929</v>
       </c>
       <c r="L23">
-        <v>1.039882969746893</v>
+        <v>1.039243876792996</v>
       </c>
       <c r="M23">
-        <v>1.050101879499707</v>
+        <v>1.049300209181448</v>
       </c>
       <c r="N23">
-        <v>1.016128310433735</v>
+        <v>1.017425727577907</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.048224626705894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.047590164832561</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023684935260252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015121193427786</v>
+        <v>1.013788251806485</v>
       </c>
       <c r="D24">
-        <v>1.034069720823566</v>
+        <v>1.032133539160338</v>
       </c>
       <c r="E24">
-        <v>1.030060316952552</v>
+        <v>1.0288984806829</v>
       </c>
       <c r="F24">
-        <v>1.0401540613431</v>
+        <v>1.038862484798029</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052305901064345</v>
+        <v>1.051433663399319</v>
       </c>
       <c r="J24">
-        <v>1.042049338552537</v>
+        <v>1.040765674016085</v>
       </c>
       <c r="K24">
-        <v>1.047523832301954</v>
+        <v>1.045618912755198</v>
       </c>
       <c r="L24">
-        <v>1.043579332735765</v>
+        <v>1.042436425763172</v>
       </c>
       <c r="M24">
-        <v>1.053510903776922</v>
+        <v>1.052239853321639</v>
       </c>
       <c r="N24">
-        <v>1.017404420062148</v>
+        <v>1.017769951333306</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.050922607447228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.049916669830604</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024276154601313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022372772627768</v>
+        <v>1.020599573000302</v>
       </c>
       <c r="D25">
-        <v>1.039208908836089</v>
+        <v>1.036763072536396</v>
       </c>
       <c r="E25">
-        <v>1.035655678540912</v>
+        <v>1.034104487377741</v>
       </c>
       <c r="F25">
-        <v>1.045402809565204</v>
+        <v>1.043732571362501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054384851070837</v>
+        <v>1.053239216860872</v>
       </c>
       <c r="J25">
-        <v>1.046169969924238</v>
+        <v>1.044453025079582</v>
       </c>
       <c r="K25">
-        <v>1.051227588507967</v>
+        <v>1.04881628824855</v>
       </c>
       <c r="L25">
-        <v>1.047724598880023</v>
+        <v>1.046195477656669</v>
       </c>
       <c r="M25">
-        <v>1.05733494104808</v>
+        <v>1.055687913659272</v>
       </c>
       <c r="N25">
-        <v>1.018830709573409</v>
+        <v>1.01873191551973</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.053949027512789</v>
+        <v>1.052645538378014</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024981154334627</v>
       </c>
     </row>
   </sheetData>
